--- a/sss/data/geoid_data/SSScounty-place-list_20220720.xlsx
+++ b/sss/data/geoid_data/SSScounty-place-list_20220720.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hec20/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hec20/SSS/sss/data/geoid_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E5A5B5-CE4F-A24F-BFD1-C1DA7AF729CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7828F69-1393-2F43-8348-DCE3EF69CC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26880" yWindow="0" windowWidth="25600" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4774"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="299" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5483,7 +5483,7 @@
   <customSheetViews>
     <customSheetView guid="{B7BC2B06-60CC-4643-9295-F822589F6BE5}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:G4774" xr:uid="{0695C10A-E9D1-A349-B9AD-77BA2D2FD367}">
+      <autoFilter ref="A1:G4774" xr:uid="{C6B262A6-2837-9F41-90C1-C4B714A9FCFE}">
         <filterColumn colId="2">
           <filters>
             <filter val="MO"/>
